--- a/server/demo/src/test/resources/testdata.xlsx
+++ b/server/demo/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C094200-A24A-48F0-8246-AA5D158819A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70B4F7-C438-4032-9CFC-A16BC6252ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{720C7FFA-570B-462D-92FF-D0DC727E981E}"/>
   </bookViews>
@@ -34,25 +34,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>test6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>test7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -417,34 +424,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CEFE5E-264E-41D6-879E-4DC6E75C44AB}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="3" max="3" width="10.4375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
